--- a/Projects/tech-project/Tech-Project-Teams.xlsx
+++ b/Projects/tech-project/Tech-Project-Teams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricSuminski\Desktop\monday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricSuminski\Desktop\220531-JWA\Projects\tech-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57456CE-401E-4FB2-9607-5575D677E351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89216FE0-3CC4-4029-9987-4FA1E9B6E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{80E93129-7D5D-45C5-B875-D5F4C48F7AA2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Team 2</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Team 5</t>
   </si>
   <si>
-    <t>Team 6</t>
-  </si>
-  <si>
     <t>Cameron Hauser</t>
   </si>
   <si>
@@ -103,28 +100,7 @@
     <t>Maurice Kabeireho</t>
   </si>
   <si>
-    <t>Sebel Shewaneh</t>
-  </si>
-  <si>
-    <t>Amanda Rodriguez</t>
-  </si>
-  <si>
-    <t>Elisabeth Gilbert</t>
-  </si>
-  <si>
     <t>Herman Fluitt</t>
-  </si>
-  <si>
-    <t>Jacob Ambrose</t>
-  </si>
-  <si>
-    <t>James Zhang</t>
-  </si>
-  <si>
-    <t>Martin Clark</t>
-  </si>
-  <si>
-    <t>Sherrita Coleman</t>
   </si>
   <si>
     <t>Tareka Long</t>
@@ -152,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,14 +165,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,11 +189,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -231,7 +214,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44576D32-C2E6-47E0-AF58-AB69E9C1D31E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -562,7 +546,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -576,103 +560,94 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
